--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6B88AC-7CB7-5449-9976-A4570A3C6D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCB78A3-74F9-4535-8B0A-531B66FC420C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1540" windowWidth="48840" windowHeight="21640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Height</t>
   </si>
@@ -74,9 +74,6 @@
     <t>identified gender (male/female/other)</t>
   </si>
   <si>
-    <t>Eye Color</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Waist Size</t>
-  </si>
-  <si>
     <t>numeric value&gt;0 or NA</t>
   </si>
   <si>
@@ -98,10 +92,13 @@
     <t>Br/Bl/Gr</t>
   </si>
   <si>
-    <t>Waist size</t>
-  </si>
-  <si>
     <t>waist size in inches</t>
+  </si>
+  <si>
+    <t>EyeColor</t>
+  </si>
+  <si>
+    <t>WaistSize</t>
   </si>
 </sst>
 </file>
@@ -430,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,13 +444,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>180</v>
       </c>
@@ -464,13 +461,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>175</v>
       </c>
@@ -481,13 +478,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -498,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>178</v>
       </c>
@@ -515,13 +512,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>192</v>
       </c>
@@ -532,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>156</v>
       </c>
@@ -566,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>166</v>
       </c>
@@ -583,13 +580,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>155</v>
       </c>
@@ -600,13 +597,13 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>145</v>
       </c>
@@ -617,13 +614,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>165</v>
       </c>
@@ -631,13 +628,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>133</v>
       </c>
@@ -648,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>166</v>
       </c>
@@ -662,13 +659,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>154</v>
       </c>
@@ -679,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>34</v>
@@ -694,18 +691,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -738,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -749,26 +746,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
